--- a/deuChatbot/research_result/version_2(1500_500).xlsx
+++ b/deuChatbot/research_result/version_2(1500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20819,6 +20819,6736 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 준비물, 주제, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7686799529653063</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어져 있습니다. 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하게 됩니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+이와 같이 디자인조형학과의 실기시험은 각 분야별로 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 준비하고, 당일 추첨을 통해 주제가 결정되며, 5시간 동안 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 원본과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 매끄럽지 않은 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 누락되거나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회에 대한 설명도 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 대회 목록을 정확하게 나열하고 있습니다. 주제에 대한 적절한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9150086599981222</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 정보를 참고하여 지원할 수 있는 대회를 선택하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 추첨 방식에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 추첨 방식을 일관되게 설명하고 있지만, 추가된 디자인 분야에 대한 언급이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 주제와 추첨 방식에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가적인 디자인 분야 언급이 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락을 약간 벗어나게 할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8162720512688241</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 작성해야 합니다. 디자인조형학과의 기초디자인 실기시험에 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되며, 선정된 주제들을 연결하여 작품을 완성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 출결 점수가 2024학년도 동의대학교 학생부교과 전형에 반영된다고 주장하고 있으나, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답에서는 반영된다고 주장하고 있다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 학생부교과 전형의 출결 점수 반영 여부에 대한 질문에 직접적으로 답하고 있다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 사실적 불일치로 인해 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 출결 점수가 반영된다고 잘못된 주장을 하고 있다. 따라서 정확성이 매우 낮다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 낮다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 의미적으로 적절하지 않다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6267665982855128</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 출결 점수는 전형요소 반영비율(%)에서 12%를 차지합니다. 이전 연도인 2023학년도에는 출결이 반영되지 않았으나, 2024학년도부터 출결 점수가 학생부교과 전형에 포함되었습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8877394426884386</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직 모집단위에서 가군 일반학생 전형으로 17명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 정보가 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 포함되어 있지만 원본의 내용을 잘 반영하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6438169986387555</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8290063920360259</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 4등급의 수능 영어 점수를 100점이라고 잘못 언급하고 있습니다. 원본 텍스트에 따르면 4등급의 점수는 115점입니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 4등급의 점수를 잘못 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수능 영어 등급 점수에 대한 질문에 직접적으로 관련이 있습니다. 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 올바르고 자연스럽게 작성되어 있습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 정보를 제공합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 4등급의 점수를 잘못 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 좋습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 4등급 점수를 잘못 제시하여 원본 텍스트의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 작성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.6993188841176242</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>4등급의 경우 수능 영어 등급점수가 100점입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 이는 원문과 명백히 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되며, 예술고 학생의 지원 자격에 대한 정보가 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 신뢰성에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 일관되게 제시되고 있습니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 완전히 일치하지 않으며, 예술고 학생의 지원 가능성에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받으며, 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6710127501393329</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 그러나 지원 자격을 충족시켜야 하며, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다. 또한 제출서류는 가족관계증명서, 주민등록초본 등이 필요합니다. 자세한 내용은 입시 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 거리가 268~271cm"라는 부분은 원본 텍스트에 명시된 기록 범위와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 부분이 있지만, "남은 거리"라는 표현이 원본 텍스트의 내용과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "여는 거리"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 이해할 수 있지만, "남은 거리"와 "여는 거리"라는 표현이 혼란을 줄 수 있어 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 범위가 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답의 의미는 대체로 적절하지만, "남은 거리"와 "여는 거리"라는 표현이 원본 텍스트의 의미와 일치하지 않아 다소 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 일부 표현이 혼란을 줄 수 있어 명확성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8099908695988906</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4등급에 해당하는 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 남은 거리가 268~271cm이고, 여는 거리는 218~221cm입니다. 이 기록의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보(전형요소 반영비율의 변경 내용)는 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성을 위해서는 다소 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 복잡한 문장 구조가 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 내용이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 맥락에서 약간의 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.679020375724533</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다. 이는 전형요소 반영비율에서 변경된 내용 중 하나로, 이전 학년도에는 실기/실적(경기실적우수자전형)에서는 학생부교과가 30%, 출결이 70%를 차지하고 있었으나, 2024학년도부터는 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 물리치료학과의 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 0명이라고 잘못 언급하고 있습니다. 또한, 정원 내 모집 인원으로 40명을 언급하는 것도 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 모집 인원은 4명이라고 명시되어 있으나, 생성된 응답에서는 모집 인원이 0명이라고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제에서 벗어나 있습니다. 원문에서 요구하는 정보에 대한 정확한 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에서 벗어난 내용을 포함하고 있습니다. 원문에서 요구하는 정보와는 다른 방향으로 해석되고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.6996827270054802</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 물리치료학과에서는 가군에서 일반 학생을 모집하지 않습니다. 정원 내 모집 인원은 40명이며, 나군에서 일반 학생 및 경기 실적 우수자, 농어촌 학생, 평생 학습자, 성인 학습자(정원내), 성인 학습자(정원외), 재직자, 조기 취업형 계약 학과 등에서 모집 인원이 있습니다. 가군에서는 일반 학생을 모집하지 않으므로 정확한 모집 인원은 0명입니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있으며, 추가된 전공 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4981529548466261</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 응용화학과의 수능 최저기준이 없다는 정보는 정확하지만, "구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다."라는 부분은 사실과 다를 수 있습니다. 응용화학과에 대한 구체적인 기준이 없다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응용화학과의 수능 최저기준이 없다는 점은 일관되지만, 다른 전공들과의 비교에서 응용화학과에 대한 구체적인 기준이 있다고 언급한 부분은 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응용화학과의 수능 최저기준에 대한 질문에 대해 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 전반적으로 문장이 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답의 흐름이 자연스럽고 논리적으로 연결되어 있습니다. 그러나 응용화학과에 대한 구체적인 기준이 없다는 점에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답의 대부분은 정확하지만, 응용화학과에 대한 구체적인 기준이 없다는 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답이 잘 구성되어 있으며, 여러 차원에서 양호한 성과를 보이고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 대체로 적절하지만, 응용화학과에 대한 구체적인 기준이 있다는 언급은 의미적으로 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답이 전반적으로 명확하고 이해하기 쉬우나, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4634824300217568</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 다른 전공들의 경우, 수능 최저기준이 없음을 알 수 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있지 않으므로 사실성이 매우 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 따라서 일관성 점수는 최고입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실적인 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답이 우수하게 평가되므로, 종합적인 품질 점수는 최고입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7720249934206639</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 서류와 면접의 비율이 동일하게 유지되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.9275329785402846</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류가 70%, 면접이 30%입니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있지만, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 특정 학과를 나열하고 있지만, 생성된 응답은 '한의예과'만 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 원본 텍스트에서 언급된 학과와는 관련이 없습니다. 그러나 주제는 여전히 관련성이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. '한의예과'에 대한 언급이 원본 텍스트와 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보를 포함하고 있습니다. '한의예과'는 원본 텍스트에 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7244359777201834</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이는 한의예과에서 수학(미적분/기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여한다는 정보가 있습니다. 다른 학과에서는 일반적으로 수능 성적을 반영하는 방식이지만, 가산점은 한의예과에서만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 반영 영역별로 25%씩 반영한다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 성적을 25%씩 반영한다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 강조된 100% 반영이라는 핵심 내용을 간과하고 있습니다. 그럼에도 불구하고 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문에서의 100% 반영이라는 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 사실과 크게 다릅니다. 수능 성적을 100% 반영한다고 했으나, 생성된 응답에서는 25%씩 반영한다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 원문과의 불일치가 두드러지며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 핵심적인 의미인 100% 반영이라는 점을 간과하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 정보는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7701377538799801</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 각 반영 영역별로는 국어, 수학, 영어, 탐구의 성적을 25%씩 반영합니다.
+이러한 방식으로 수능 성적이 학생들의 입시 경쟁력을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2024년 1월 16일에 동의대학교 가군 실기고사가 진행된다는 사실을 포함하고 있지만, 추가적으로 다른 학과의 실기고사 날짜를 언급하고 있어 사실과 다소 일치하지 않습니다. 원본 텍스트에는 다른 학과의 실기고사 날짜에 대한 정보가 포함되어 있지 않기 때문에, 이 부분에서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가적인 정보(디자인조형학과와 체육학과의 실기고사 날짜)가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 정보와 충돌하는 부분이 없지만, 불필요한 정보가 추가되어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 가군 실기고사 날짜에 대한 정보를 제공하고 있습니다. 그러나 추가된 학과 정보는 원본 텍스트와 직접적인 관련이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 학과의 실기고사 날짜를 잘 연결하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실(가군 실기고사 날짜)을 포함하고 있지만, 다른 학과의 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다. 그러나 유창성과 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7304407786013356</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 2024. 01. 16.(화)에 실시됩니다. 또한, 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과에서는 같은 날인 2024. 01. 17.(수)에 실기고사가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형의 모집단위에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 내용과 완전히 다른 학과가 언급되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 전형에 대한 질문에 답하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조가 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6420076256068586</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외되었습니다. 이는 전형요소 반영비율에서 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일치하는 사실을 포함하고 있으며, 수능 최저기준이 적용되지 않는다는 점을 정확히 전달하고 있습니다. 그러나 "모든 다군 전형에서 공통된 특징입니다"라는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 유지하고 있습니다. 그러나 "모든 다군 전형에서 공통된 특징입니다"라는 문구는 원문에 없는 정보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확히 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있지만, 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에 대한 정확한 정보를 제공하지만, 추가된 정보가 원문에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원문에 없는 정보를 포함하고 있어 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문에 없는 정보가 포함되어 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8652922209231562</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 다군 전형에서 공통된 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경제금융보험학부가 학부에서 학과로 분리되었다고 언급하고 있지만, 실제로는 금융경영학과로 이름이 변경되었고, 경제정보학과는 언급되지 않았습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 경제정보학과가 신설되었다고 하지만, 원본 텍스트에는 그러한 내용이 없습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 학부 분리에 대한 정보를 제공하고 있으나, 일부 잘못된 정보가 포함되어 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 방해받고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 어느 정도 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과 완전히 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5826086845852202</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 경제금융보험학부가 학부에서 학과로 분리되었습니다. 이에 따라 경제정보학과와 e비즈니스학과, 금융경영학과가 신설되었습니다.
+이 정보는 제공된 문맥을 바탕으로 추론한 것입니다. 만약 더 정확한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8460420328845637</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 라이프융합학부의 학생부종합전형에 대한 내용으로, 원본 텍스트와 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 전체적인 이해는 어렵습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6709827274808013</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경사항 중 전형 요소 변화가 있는 것은 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)에 대한 학생부종합전형입니다.
+- **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**:
+  - **모집단위 및 모집인원**:
+    - 단과대학: 미래융합대학
+    - 계열: 인문사회
+    - 전형명: 학생부종합(평생학습자전형)
+    - 모집인원: 11명
+  - **모집단위 및 모집인원**:
+    - 단과대학: 미래융합대학
+    - 계열: 인문사회
+    - 전형명: 학생부종합(성인학습자(정원외)전형)
+    - 모집인원: 23명
+  - **모집단위 및 모집인원**:
+    - 단과대학: 미래융합대학
+    - 계열: 인문사회
+    - 전형명: 학생부종합(성인학습자(정원내)전형)
+    - 모집인원: 7명
+  - **모집단위 및 모집인원**:
+    - 단과대학: 미래융합대학
+    - 계열: 인문사회
+    - 전형명: 학생부종합(성인학습자(정원외)전형)
+    - 모집인원: 17명
+  - **모집단위 및 모집인원**:
+    - 단과대학: 미래융합대학
+    - 계열: 인문사회
+    - 전형명: 학생부종합(재직자전형)
+    - 모집인원: 7명
+이러한 변화는 전형의 지원 자격, 정원 외 지원 자격, 최종 등록자 추가 제출 서류, 동점자 처리 기준 등을 포함하여 상세히 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실을 정확하게 반영하고 있지만, 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 70%라는 추가 정보를 제공하고 있습니다. 이 정보는 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 레저스포츠학과와 태권도학과를 제외한 내용은 원문에 없는 정보로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기 비중에 대한 설명이 명확하게 이어집니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중이 70%라는 사실은 정확하지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 원문과의 일관성 및 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문에 없는 정보를 포함하고 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7901566904204942</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 70%입니다. 이는 전형요소 반영비율에서 실기가 차지하는 비중을 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 내용을 전달합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8271280348959673</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 '라이프융합학부'가 있습니다. 이 학부의 세부 전공은 다음과 같습니다:
+- 스타트업 창업투자학
+- 뷰티 비즈니스학 
+- 라이프 생활문화학
+위와 같이 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. '태권도학과'는 원본에 없으며, 이는 원본과의 불일치를 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 원본 텍스트와는 다른 학과를 포함하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. '태권도학과'는 원본에 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본과의 불일치로 인해 의미적으로 완전한 적합성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.660781310396234</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서는 실기고사를 요구하는 학과로는 레저스포츠학과와 태권도학과가 있습니다. 이 두 학과는 실기/실적 전형요소 반영비율이 적용되며, 그 비율은 수능 30%와 실기 70%입니다.
+따라서 가군에서 실기고사에 참여해야 하는 학과는:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과를 선택한 경우, 실기고사 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과가 신설되어 모집이 진행된다고 언급하고 있지만, 원문에서는 실기/실적 위주 전형에 지원 가능한 학과 목록을 제공하고 있습니다. 이 정보는 정확하지 않으며, 다른 전형 방식으로 지원해야 할 수 있다는 내용도 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 학과 목록과 일치하지 않으며, 경기지도학과가 신설되었다는 정보는 원문에 포함되어 있지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원문에서 요구하는 특정 학과 목록에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 연결성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 경기지도학과의 신설 여부에 대한 정보는 확인되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5373392745467933</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 경기실적우수자전형은 경기지도학과가 신설되어 모집이 진행됩니다. 이 외에 특정 학과가 실기/실적 위주 전형을 통해 모집되는 것은 아닙니다. 다른 전형 방식으로 지원해야 할 수 있습니다. 자세한 내용은 동의대학교 입시 홈페이지를 참조하시거나, 직접 대학에 문의해보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: '스마트업창업투자학'이라는 전공은 '스타트업창업투자학'의 오타로 보이며, 이는 사실과 다릅니다. 추가적으로 '미래융합대학의 라이프융합학부'에 대한 언급은 원문에 포함되어 있지 않아 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 전공 목록 중 하나가 잘못 기재되어 있으며, 원문에 없는 정보가 추가되어 있어 일관성이 떨어집니다. 그러나 나머지 전공들은 일치하므로 완전히 일관성이 없다고 보기는 어렵습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부의 전공에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 전공 목록과 신설된 학부에 대한 언급은 모두 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, '스마트업창업투자학'이라는 표현이 오타로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 전공 목록과 추가 정보를 잘 연결하고 있으며, 전반적으로 논리적인 흐름을 유지하고 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 전공 이름의 오타와 원문에 없는 정보가 포함되어 있어 정확성이 떨어집니다. 그러나 나머지 정보는 정확합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 사실적 오류와 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 오타로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 오타로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8551167045555168</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+또한, 미래융합대학의 라이프융합학부는 신설되었으며, 이에 따라 정원 내 모집 인원과 지원 자격 등이 다양하게 제시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 지원 자격 조건에 대한 불확실성을 강조하고 있습니다. 원문에서 명확히 지원 가능하다고 언급된 부분이 다소 모호하게 표현되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 지원 가능성에 대한 불확실성을 강조하면서 원문에서의 명확한 사실과 다소 상충하는 느낌을 줍니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 지원 자격 조건에 대한 추가 정보를 제공하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 주제가 약간 분산되는 경향이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 지원 가능성에 대한 불확실성을 강조함으로써 원문의 명확한 사실을 약간 왜곡하는 경향이 있습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 일관성과 정확성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 지원 가능성에 대한 불확실성을 강조함으로써 원문의 명확한 의미를 약간 흐리게 하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7140472764497152</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 특수목적고등학교 학생이 동의대학교 일반학생전형으로 지원 가능 여부는 해당 전형의 지원 자격 조건에 따라 결정됩니다. 현재 제공된 정보로는 특수목적고등학교 학생이 직접 일반학생전형을 지원할 수 있는 명확한 기준이 없어, 특정 전형(나군 학생부종합, 나군 실기/실적 등)의 지원 자격 조건을 확인해야 합니다.
+특히 나군 학생부종합과 나군 실기/실적 등의 전형에서 지원 자격에 대한 명확한 정보가 필요합니다. 예를 들어, 나군 학생부종합에서는 특정 교과 성적이나 학교생활기록부 등이 요구되므로, 이와 관련된 자격 조건을 확인해야 합니다.
+만약 특수목적고등학교 학생의 지원 가능성을 알고 싶다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 동의대학교 입학처에 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집된다고 명시하고 있지만, 생성된 응답에서는 기계공학과와 조선해양공학과가 언급되고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 다른 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제에 대한 명확한 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 맞지 않으며, 잘못된 학과와 모집 인원을 언급하고 있습니다. 이는 정확성에 큰 결함이 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락과 맞지 않는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6305954614745568</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 최대 선발 가능 인원만으로 판단하면, 기계공학과와 조선해양공학과가 각각 최대 선발 가능 인원이 5명 이내와 4명 이내로 가장 높은 수치를 보이고 있습니다. 그러나 정확한 결론을 내리기 위해서는 전체 모집인원, 학과별 특성 등을 고려해야 합니다.
+현재 제공된 정보만으로 판단하면 기계공학과와 조선해양공학과가 가장 많이 모집되는 것으로 추정할 수 있습니다. 하지만 더 자세한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인하시거나 전형요강을 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 지원할 수 없다고 명시된 사항과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석되고 있으며, 잘못된 정보로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.612979353926591</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 특수목적고등학교 학생은 농어촌학생전형에 지원할 수 있습니다. 하지만 지원 자격 중 하나로 "중·고등학교 재학기간(중학교 입학일~고등학교 졸업일까지) 중 본인 및 그의 부모 모두가 농어촌(읍·면) 지역에 거주한 자"라는 조건이 있습니다. 따라서, 특수목적고등학교에서 학교생활을 하면서도 본인과 부모가 농어촌 지역에 거주해야 합니다.
+추가적으로, 지원 자격과 제출 서류 등 자세한 내용은 위에서 제공된 정보를 참고하시거나, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 공식 안내를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 부재에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격자 평균 성적에 대한 정보의 부재를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8190387148856292</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 정보는 다른 학과와 전공의 평균 성적 및 기타 통계를 포함하고 있습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 대학 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 수치를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비일관성이 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5205882712801817</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 또한, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다. 마지막으로, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 충원 합격자 발표 및 등록에 대한 정보가 원본 텍스트와 일치하지 않으며, 추가된 정보가 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히 등록 관련 정보와 발표 일정이 서로 충돌하며, 원본 텍스트에 없는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 추가적인 정보가 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 정보의 흐름이 매끄럽지 않고 일부 내용이 중복되거나 불필요하게 추가되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 추가된 정보로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 일치성이 떨어져 일부 내용이 부적절하게 추가되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 정보를 제공하지 않고, 웹사이트를 통해 확인하라는 내용으로 대체하고 있습니다. 원본 텍스트의 핵심 정보인 면접 날짜(2024. 01. 20.)가 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 면접 일정에 대한 구체적인 날짜를 언급하지 않아 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 날짜를 포함하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 일정에 대한 정보와 웹사이트 안내가 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 날짜를 포함하지 않아 정확성 점수가 낮습니다. 면접 일정에 대한 정보가 불완전합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 점수가 고르게 낮아, 전반적인 품질이 떨어집니다. 특히 사실성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 면접 일정에 대한 정보를 요청하는 질문에 적합한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 다만, 원본 텍스트의 핵심 정보를 포함하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4973110887583422</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접일정에 대한 구체적인 정보는 해당 모집단위의 입학사정관이 평가를 진행하기 때문에, 정확한 날짜와 시간은 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 주세요. 또한 면접일정은 합격자 발표 후에 공지되므로, 먼저 서류심사 결과를 확인하고 이후 면접 일정을 체크하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "수능 위주 전형으로 모집된다"는 추가 정보는 명확히 출처에서 언급되지 않았으므로, 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "수능 위주 전형으로 모집된다"는 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "제공된 정보에 따르면"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, 수능 위주 전형에 대한 정보는 원문에 명시되어 있지 않아 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문에 포함되어 있지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5482530998045215</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 한의예과의 경우 수능 위주 전형으로 모집되며, 수능 최저학력 기준이 없습니다. 따라서 한의예과에서 수능 최저학력 기준을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다군 수능(일반학생전형)"이라는 구체적인 언급은 원문에 포함되어 있지 않으며, 다른 정시 모집단위에서 수능최저학력기준을 요구할 수 있다는 내용은 다소 일반화된 정보입니다. 따라서 약간의 부정확성이 있지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 점에서 일관성을 유지하고 있지만, 다른 정시 모집단위에 대한 언급이 추가되어 있어 원문과의 일관성이 떨어질 수 있습니다. 원문은 특정 대학에 대한 정보만을 제공하고 있으므로, 추가된 정보가 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊습니다. 수능 최저학력 기준에 대한 정보를 제공하며, 추가적인 안내도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 다른 정시 모집단위에 대한 언급은 정확한 정보가 아닐 수 있으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 추가로 인해 일관성과 정확성이 다소 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높습니다. 그러나 추가된 정보가 원문의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5648912799939237</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 다군 수능(일반학생전형)의 경우, 수능최저기준이 없습니다. 전형요소 반영비율에서 확인한 결과, 모든 모집단위에서 수능 최저 기준이 없음을 알 수 있습니다.
+만약 다른 정시 모집단위에서는 수능최저학력기준을 요구할 수 있으므로, 특정 대학의 정시 모집단위별로 수능최저학력기준을 확인하시기 바랍니다. 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 누락되어 있으며 "개별 전화 통보로 이루어집니다"라는 내용은 원본 텍스트에 명시된 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 3차 이후의 발표 일정에 대한 정보가 다르게 표현되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 3차 이후 일정에 대한 설명이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 잘못되었거나 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보의 누락과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 3차 이후 일정에 대한 설명이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정인 2024년 2월 15일(목) 09:00을 언급하고 있지만, 1차 및 3차 이후 발표 일정에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지만, 전체적으로는 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정과 일치하지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 전체적인 발표 일정과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 발표 일정에 대한 모든 정보를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정에 대한 정확한 정보를 제공하지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 발표 일정의 모든 세부사항을 포함하지 않아 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 발표 일정의 모든 정보를 포함하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.6064423685065369</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 02월 15일(목) 09:00입니다. 이 정보가 도움이 되셨기를 바랍니다. 더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 발생할 수 있는 조건을 명확히 설명하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 추가 모집이 언급되지 않았다는 점에서 일관성이 부족합니다. 원본 텍스트와의 일관성을 고려할 때 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으나, 추가 모집에 대한 구체적인 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않으며, 추가 모집에 대한 정보가 누락되어 있습니다. 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 평균적인 품질을 보이며, 여러 요소에서 부족함이 있습니다. 따라서 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가 모집에 대한 정보가 부족하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5007825310914059</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 추가 모집이 언급되어 있지 않습니다. 각 전형별 모집단위와 모집인원은 다음과 같습니다:
+- 미래융합대학 인문사회 계열 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) - 학생부종합(평생학습자전형): 11명 모집
+- 미래융합대학 인문사회 계열 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) - 학생부종합(성인학습자(정원외)전형): 23명 모집
+- 미래융합대학 인문사회 계열 부동산자산경영학부 (부동산투자학, 부동산개발경영학) - 학생부종합(성인학습자(정원내)전형): 7명 모집
+- 미래융합대학 인문사회 계열 부동산자산경영학부 (부동산투자학, 부동산개발경영학) - 학생부종합(성인학습자(정원외)전형): 17명 모집
+- 미래융합대학 인문사회 계열 부동산자산경영학부 (부동산투자학, 부동산개발경영학) - 학생부종합(재직자전형): 7명 모집
+추가 모집에 대한 정보는 제공되지 않았습니다. 추가적인 모집 정보를 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 성인 학습자를 대상으로 하는 입학 전형에 대한 일반적인 설명을 포함하고 있습니다. 원본 텍스트의 구체적인 내용(모집단위, 모집인원, 제출서류 등)이 누락되어 있으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 구체적인 세부사항이 반영되지 않았고, 전형의 평가 기준에 대한 정보가 추가되었지만, 원본의 내용과는 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 주요 내용과는 관련성이 떨어집니다. 전형의 평가 기준에 대한 정보는 있지만, 원본의 구체적인 세부사항이 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 전형의 구체적인 세부사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 전반적으로 의미는 전달되지만, 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 사용되었습니다. 그러나 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.4995036388589751</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형에서는 지원자의 학업역량, 공동체역량, 전공적합성 등을 종합적으로 평가합니다.
+1. **서류평가**:
+   - **평가영역**: 공동체역량, 학업역량, 전공적합성
+   - **평가기준**: 
+     - **공동체역량**: 협업능력, 공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부 등
+     - **학업역량**: 학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업 성취정도, 학년별 성적 추이 등
+     - **전공적합성**: 지원 전공(계열) 관련 활동과 경험, 지원 전공(계열) 관련 학업의지, 학교생활의 적극적 참여 등
+2. **면접평가**:
+   - **평가영역**: 학업역량, 전공적합성
+   - **면접시간**: 1인당 10분 이내
+   - **면접방법**: 입학사정관 2인이 수험생을 대상으로 개별적으로 평가하며, 정성·종합적으로 평가합니다.
+   - **블라인드 면접**: 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지, 교복 착용 금지
+3. **면접평가 질문 공통문항**:
+   - **지원동기 및 학업계획**: 지원 동기에 대해 이야기하고, 입학 후의 학업 계획을 설명합니다.
+   - **학업역량**: 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기합니다.
+   - **전공적합성**: 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내(직장 내) 활동을 설명합니다.
+4. **면접평가 영역 및 배점**:
+   - **학업역량**: 1등급 180점, 2등급 166.5점, 3등급 153점, 4등급 139.5점, 5등급 126점
+   - **전공적합성**: 1등급 120점, 2등급 111점, 3등급 102점, 4등급 93점, 5등급 84점
+5. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 절차와 기준을 통해 평생학습자전형은 지원자의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정확한 정보를 제공하지 않고, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라고 명시하고 있지만, 생성된 응답은 다양한 고등학교 유형을 나열하고 있으며, 이는 원본과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 제시된 지원자격과 생성된 응답의 내용이 서로 상반되며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정한 지원자격을 명시하고 있지만, 생성된 응답은 다양한 고등학교 유형을 나열하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 고등학교 유형을 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트와의 연결이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본의 지원자격을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 원본의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도가 떨어집니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.623886331974167</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 일반고
+- 자율고
+- 과학고, 국제고, 외국어고 (특수목적고 중에서)
+- 예술고, 체육고 (특수목적고 중에서)
+- 마이스터고 (특수목적고 중에서)
+- 특성화고의 특성(직업) 
+- 특성화고의 특성(대안)
+- 영재학교
+- 학력인정고
+- 방송통신고
+- 각종학교
+검정고시와 외국고는 지원 자격이 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 주제와 관련 없는 내용이 포함되어 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 없습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 각 주제 간의 연결이 부족하여 일관된 흐름이 없습니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 불명확하여 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3894783162646514</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집단위에 따라 다르게 준비해야 합니다.
+1. **디자인조형학과** (시각디자인, 산업디자인, 공예디자인):
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등.
+   - **실기주제**: 주제A와 주제B에서 선택하여 연결된 주제를 표현합니다. 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음).
+   - **화지크기**: 켄트지3절.
+   - **시간**: 5시간.
+2. **체육학과**:
+   - **모집단위**: 체육학과
+   - **실기종목**: 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등.
+   - **점수 배점**: 240점 (제자리 멀리뛰기), 243점 (메디신볼 던지기), 230점 (Z-런).
+각 모집단위별로 실기종목과 준비물, 주제 등이 다르므로 해당 모집단위의 정보를 잘 확인하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 제공된 정보와 관련이 없는 내용이 포함되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2342619409977717</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 
+모집단위별로 선택할 수 있는 실기종목은 다음과 같습니다:
+- 메디신볼 던지기: 243점(23%)
+- 제자리 멀리뛰기: 240점(24%) 
+- Z-런: 230점(23%)
+따라서 체육학과를 지원하는 학생들은 이 중 하나의 실기를 치르면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표 후 개별 전화 통보를 받는다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 전화로 개별 연락을 하지 않는다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있는데, 생성된 응답은 전화 통보가 있을 것이라고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 낮습니다. 전화 통보에 대한 잘못된 정보가 주를 이루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 중요한 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보가 주를 이루고 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 언급하고 있지만, 2024학년도 모집 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 일부 사실은 정확하지만, 추가된 정보는 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 2024학년도에 대한 정보는 원본 텍스트와 모순됩니다. 원본 텍스트는 2023학년도 수시모집 결과에 대한 정보가 없다고 명시하고 있으므로, 2024학년도에 대한 정보는 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 2024학년도에 대한 정보는 원본 텍스트의 핵심 질문과는 직접적인 관련이 없습니다. 그러나 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점은 정확하지만, 2024학년도에 대한 정보는 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 2024학년도에 대한 정보는 원본의 맥락과는 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8162654905118906</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원은 29명으로 경쟁률이 4.14입니다. 이와 같은 경향을 바탕으로 2023학년도의 수시모집 결과를 추정할 수 있지만, 정확한 정보는 해당 대학의 공식 웹사이트에서 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않아도 지원할 수 있다고 주장하고 있지만, 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 정시모집과 관련된 정보를 제공하고 있지만, 원문에서의 핵심 질문인 수능 응시 여부에 대한 답변과는 관련이 없습니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문과의 관계가 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.561286502095132</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 정시모집에서 수능 응시를 하지 않아도 지원이 가능합니다. 이는 전형명과 지원자격의 변경사항으로, 학생부종합(성인학습자(정원내)전형)을 통해 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 지원이 가능하게 되었습니다. 이와 관련된 자세한 내용은 공식 홈페이지에서 확인해 보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. "총 재직기간이 3년 이상이어야 한다"는 정보는 원문에 포함되어 있지 않으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있어 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 조건을 제시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 사실을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않은 정보가 포함되어 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.4629150258446741</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다. 따라서 현재 상황에서는 정시 지원이 불가능합니다. 재직기간이 부족한 경우에는 추가적인 경력이나 자격증 등을 통해 요구 조건을 충족시키는 방법을 고려해 보세요. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 입시 관련 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7816203893707542</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(목) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8490548838361595</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(수) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하신 경우 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명백히 반박하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 정시 모집에 대한 질문에 답하고 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 신뢰할 수 없는 정보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6982176557692866</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형으로 '학생부종합(평생학습자전형)'이 있습니다. 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 36명까지 충원 합격이 이루어졌다고 명시되어 있지만, 생성된 응답에서는 그러한 정보가 없다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서 제공된 정보와 상충되는 내용을 담고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 핵심적인 사실을 누락하고 있어 관련성이 떨어집니다. 원문에서 언급된 충원 합격에 대한 정보가 포함되어 있지 않기 때문입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하지 않고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.4757469624053908</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과 관련된 데이터가 없습니다. 이와 관련된 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 전화번호를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 없습니다. 전화번호를 제공하는 대신, 정보가 없다고 언급하고 있으며, 이는 원본 텍스트의 핵심 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트의 정보와 연결되지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 없다고 잘못 주장하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 정보를 제공하지 않는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6609798205390304</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，可以访问以下网站以获取最新数据：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 내용을 왜곡하고 있습니다. 원본에서는 전화 연락이 두절될 경우 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 학생이 홈페이지에서 합격 사실을 확인할 수 있다고 언급하고 있습니다. 이는 원본의 내용을 잘못 해석한 것입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 연락이 되지 않을 경우 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 다른 방법으로 합격 사실을 확인할 수 있다고 주장하고 있어 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에서 벗어난 부분이 있습니다. 원본의 핵심은 전화 연락이 되지 않을 경우의 처리 방법에 대한 것이지만, 생성된 응답은 홈페이지 조회와 같은 다른 방법에 대한 설명이 포함되어 있어 다소 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 원본의 주제를 명확히 반영하지 않기 때문에 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본의 사실과 크게 다릅니다. 원본에서 제시된 정보와는 다른 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 주제와의 관련성도 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과는 다소 어긋나는 내용이 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편입니다. 그러나 원본의 핵심 내용을 반영하지 않기 때문에 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5109792679681451</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 사실을 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 직접 수령 가능하며, 등록장소는 학교 지정은행으로 등록금을 납부해야 합니다.
+만약 이러한 방법들도 통하지 않는다면, 입학관리팀에 연락하여 상황을 설명하고 처리 방법을 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정확한 정보를 제공하지 않고, 재직자전형과 관련된 서류를 언급하고 있습니다. 이는 원본 텍스트와 상충하며, 농어촌학생전형에 대한 구체적인 요구 사항을 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 농어촌학생전형에 필요한 서류를 명확히 나열하고 있지만, 생성된 응답은 재직자전형과 관련된 서류를 언급하며 혼란을 초래합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (3-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 주제가 원본 텍스트와 다르기 때문에 논리적인 흐름이 약해집니다. 주제 전환이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 농어촌학생전형에 필요한 서류에 대한 정보가 잘못되어 있으며, 이는 심각한 부정확성을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 문제가 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (2-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (4-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6712167635418468</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시에는 특별히 제시된 재직자전형의 서류들과는 다릅니다. 농어촌학생전형에서는 지원 자격이 산업 적용 범위에 따라 구분되며, 세부적으로는 국가·지방자치단체 및 공공단체(소속 직원의 경우) 또는 4대 보험 중 1개 이상 가입 사업체(창업·자영업자 포함)로 제한됩니다. 그러나 농어촌학생전형에 특화된 서류는 없습니다.
+따라서, 일반적으로 재직자전형에서 요구되는 서류와 유사하게 다음과 같은 서류를 제출해야 할 수 있습니다:
+1. **고교 학교생활기록부** (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+2. **4대 보험 가입 증빙서류** (건강보험자격득실확인서 또는 국민연금가입증명서 등)
+3. **사업자등록증명원 또는 폐업사실증명원** (창업 및 자영업자의 경우)
+4. **소득금액증명원** (창업 및 자영업자의 경우)
+5. **군 의무복무 경력 증빙서류**
+6. **국가·지방자치단체가 발급하는 공적증명서** (1차 산업체 종사자의 경우)
+이러한 서류들은 재직기간과 관련된 증빙 자료들이며, 농어촌학생전형에 특화된 서류는 없습니다. 따라서, 지원 자격을 갖추고 있는지 확인하고 필요한 서류들을 준비하는 것이 중요합니다.
+만약 더 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정'에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출 가능성에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8150795439885091</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "저소득 기회균등 전형"이라는 표현은 원본 텍스트에서 명시되지 않았기 때문에 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 기회균등 전형이 존재하지 않는다는 점에서 일관성을 유지하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에서는"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 그러나 약간의 어색함이 있어 완전한 일관성에는 미치지 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "저소득 기회균등 전형"이라는 표현이 원본에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 약간의 부정확성과 일관성 저하로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색하여 완전한 명확성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5867173092662686</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없습니다. 정확한 답변을 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2.5등급이 절사되어 3등급으로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5등급이 3등급으로 처리된다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 아닙니다. 따라서 관련성은 있지만, 원본의 주제를 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.7271554536229565</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 한국의 교육 시스템에서는 등급이 정수만 인정되므로, 2.5등급은 올림 처리되어 3등급으로 반영됩니다.
+만약 수능 최저등급에서 사탐 2 과목 평균산출을 하게 되면, 각 과목의 등급을 평균하여 절사한 후에 결정합니다. 따라서 2.5등급은 3등급으로 처리되며, 이는 수능 최저등급 기준에서 반영됩니다.
+자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조하시면 더 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8261691729005323</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2차 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.6이 e-비즈니스학과의 추가 합격 가능성에 미치는 영향을 언급하고 있으며, 모집 인원, 현재 합격자 수, 수능 성적 반영 비율 등의 추가 정보가 필요하다고 설명하고 있습니다. 그러나 모집 인원에 대한 구체적인 수치(10명)는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 모집 인원과 현재 합격자 수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일관성이 떨어집니다. 또한, 원본 텍스트는 수능 성적이 평균을 초과하는 경우의 가능성을 언급하고 있지만, 생성된 응답은 추가 합격 가능성을 판단하기 어렵다고 하여 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보는 정확하게 반영하고 있지만, 모집 인원과 현재 합격자 수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 부정확성으로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보는 원본 텍스트와 일치하지 않으므로 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장에서 추가 정보가 필요하다는 점이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5544185161608042</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4.6이라는 수능 점수가 e비즈니스학과에 대한 추가 합격 가능성에 큰 영향을 미칠 것입니다. 하지만 확정적인 답변을 드리기 위해서는 몇 가지 정보가 필요합니다.
+1. **모집인원**: e비즈니스학과의 모집인원은 10명입니다.
+2. **현재 합격자 수**: 현재까지 e비즈니스학과에 합격한 인원 수를 알아야 합니다.
+3. **수능 성적 반영 비율 및 기준**: 수능 성적이 전체 평가에서 차지하는 비율과 동점자 처리 기준을 확인해야 합니다.
+현재 정보만으로는 e비즈니스학과에 추가 합격 가능성을 판단하기 어렵습니다. 현재까지의 합격자 수와 모집인원, 그리고 수능 성적 반영 비율 등을 고려하여 결정해야 합니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 관계부서에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 원본 텍스트에서 제공된 영어 등급 평균(3.66)과 수능 4개 영역 등급 평균(4.53)과는 다르게 영어 등급 평균을 3.00으로 언급하고 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 또한, 정시 등급 5.3에 대한 합격 가능성에 대한 결론이 원본 텍스트와 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균과 관련된 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 불일치로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6328589217639748</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 충원 합격자는 6명입니다. 지원 인원이 11명으로 적게 지원되었기 때문에 경쟁률이 낮아 보입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이며, 이는 정시 등급 5.3에 해당하는 점수가 될 것입니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 낮아서 충원 합격 가능성은 높다고 볼 수 있습니다.
+영어 등급의 평균은 3.00이며, 정시 등급 5.3에 해당하는 영어 점수는 이보다 높을 것입니다. 따라서 영어 점수도 충원 합격 가능성에 긍정적인 요인으로 작용할 수 있습니다.
+따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 있을 것으로 보입니다. 하지만 확실한 것은 아니므로, 동의대학교 입학사정관 홈페이지나 전화로 확인하는 것이 가장 정확한 정보를 얻는 방법일 것입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학사정관 사무실에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 대신 추가적인 정보가 필요하다고 언급하고 있습니다. 이는 원본 텍스트의 명확한 사실과 상충하며, 예비 38번의 합격 가능성이 낮다는 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성이 낮다는 점을 간과하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보인 예비 38번의 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성이 다소 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결이 약해 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성이 낮다는 정보를 무시하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 예비 38번의 합격 가능성에 대한 명확한 언급이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보가 분산되어 있어 핵심 메시지가 명확하지 않을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5892374474113032</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 가군 수능(일반학생전형)과 실기/실적(일반학생전형)의 경우, 모집단위와 모집인원이 각각 다르므로, e비즈니스학 전공에 대한 정보가 필요합니다.
+e비즈니스학 전공에 대한 모집단위와 모집인원을 확인하시고, 해당 전공의 지원 자격과 제출서류를 다시 한 번 검토해보세요. 특히, 전형요소 반영 비율과 제출서류가 중요합니다.
+만약 필요한 정보가 부족하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 내용을 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 정시 성적과 합격 가능성에 대한 직접적인 언급이 부족합니다. 또한, 정시 성적의 표준 변환 점수에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 추가되었지만 원본의 핵심 내용을 완전히 반영하지는 못합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에서 다루지 않은 부분입니다. 따라서, 응답이 원본 텍스트와 완전히 일치하지 않으며, 일부 정보가 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 정시 성적에 대한 직접적인 언급이 부족합니다. 그럼에도 불구하고, 경쟁률과 충원 합격자 수에 대한 정보는 질문과 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 않으므로 정확성 점수가 낮습니다. 특히, 정시 성적에 대한 정보가 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 특히 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 다소 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하지만, 일부 정보가 추가되어 있어 원본의 의미와 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5440648478695089</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 의료보건생활대학 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원 인원이 많아 경쟁률이 높습니다.
+당신의 정시 성적(국어+수학+탐구) 표준 변환 점수 합 평균은 353.48이며, 이는 충원 합격자들의 평균 점수와 비슷하거나 약간 높습니다. 따라서, 당신의 성적은 충원 합격을 위한 수준에 해당합니다.
+하지만, 정시 모집에서 합격 가능성은 여러 요소가 영향을 미칩니다. 예를 들어, 지원자의 전체 성적이 비슷하다면, 경쟁률이 높아서 합격 확률은 낮아질 수 있습니다. 그러나 당신의 성적은 충원 합격자들의 평균 점수와 비슷하거나 약간 높으므로, 합격 가능성은 존재합니다.
+결론적으로, 당신의 성적은 충원 합격을 위한 수준에 해당하므로 합격 가능성은 있습니다. 그러나 경쟁률이 높아서 확실한 것은 아닙니다. 동의대학교 간호학과에 지원하시면, 최선을 다해 준비하시는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do를 참조하거나 관리자에게 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 또한, 정시 성적이 2.52인 경우 합격 가능성이 높다고 언급된 원본 텍스트와는 상반된 결론을 내리고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 정시 성적이 2.52인 경우 합격 가능성이 높다고 말하는 반면, 생성된 응답은 합격하기 어렵다고 판단하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 핵심 사실과 상충하는 내용을 포함하고 있습니다. 특히, 합격 가능성에 대한 결론이 원본 텍스트와 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 결론을 내리고 있어 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6153653508126963</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원자의 성적 평균은 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이고, 이는 정시 성적이 2.52인 지원자보다 높습니다.
+따라서, 정시 성적이 2.52인 경우 동의대학교 간호학과에 최종 합격하기 어렵다고 판단할 수 있습니다. 하지만, 최종 합격 가능성은 여러 요소에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.7의 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나, 실기/실적 위주 전형에 대한 언급은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 실기/실적 위주 전형에 대한 추가 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다. 또한, 학생부 교과성적 반영방법의 변경 사항은 원문과 관련이 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 정보를 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원문과 관련이 없기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확한 정보를 제공하지만, 실기/실적 위주 전형에 대한 언급은 원문에 명시되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 추가된 정보가 원문과의 맥락에서 벗어나 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6722127362320465</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균 점수로 간호학과에 정시 전형으로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 성적을 요구하며, 특히 실기/실적 위주전형인 경우 실력도 중요하게 평가받습니다.
+2024학년도의 변경사항에 따르면 학생부 교과성적 반영방법이 바뀌었습니다. 2023년에는 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영했지만, 2024년에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하게 되었습니다. 이는 더 많은 과목에서 높은 성적을 요구하는 것을 의미합니다.
+또한, 학생부종합 평가 영역이 공동체역량, 학업역량, 전공적합성으로 바뀌었으며, 각 영역에 대한 평가 기준과 배점도 변경되었습니다. 이는 더 다양한 측면에서 지원자를 평가하려는 시도입니다.
+따라서, 3.7의 성적만으로 간호학과에 정시 전형으로 합격하기 어렵다고 판단됩니다. 그러나, 실기/실적 위주전형인 경우 실력이 뛰어나다면 합격 가능성은 있습니다. 또한, 지원자의 특성화고 졸업 여부, 경력 등도 고려될 수 있으므로, 자세한 정보는 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 정시 성적 2.58이 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원문에서는 2.58이 평균보다 높은 성적이라고 명시하고 있습니다. 따라서, 여러 가지 사실적 오류가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 2.58이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 성적으로 잘못 해석하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 관련된 정보를 제공하며, 질문에 대한 답변을 시도하고 있습니다. 그러나 원문에서 제시된 주요 정보와는 다소 거리가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 성적에 대한 해석이 원문과 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 정시 성적에 대한 잘못된 해석을 포함하고 있으며, 이는 원문에서 제공된 정보와 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6175585226205887</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 지원 인원이 많아서 높은 경쟁률을 보이고 있습니다. 또한, 해당 학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48이며, 표준 편차는 4.66입니다.
+당신의 정시 성적이 2.58이라면, 이는 평균보다 낮은 수치를 보여줍니다. 그러나, 동의대학교 간호학과의 경쟁률이 높고, 표준 편차가 작은 것을 고려하면, 단순히 정시 성적만으로 합격 여부를 판단하기는 어렵습니다.
+결론적으로, 정시 성적이 2.58이라면, 동의대학교 간호학과에 정시 전형으로 합격할 확률은 낮을 것으로 예상됩니다. 그러나, 최종 합격 여부는 여러 요인(예: 면접 결과, 서류 심사 등)이 결합되어 결정되므로, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 상세히 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번 학생이 게임공학과에 지원하려는 상황을 설명하고 있지만, 원본 텍스트에서 언급된 충원합격(후보 순위) 3번까지의 정보와 예비 7번의 가능성에 대한 명확한 언급이 부족하다. 따라서, 일부 사실이 누락되었거나 정확하지 않다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 예비 7번의 합격 가능성에 대한 명확한 결론을 제시하지 않아서 일관성이 떨어진다. 원본 텍스트는 예비 7번의 가능성이 낮다고 명시하고 있으나, 생성된 응답은 그에 대한 확정적인 언급이 없다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과에 대한 정보와 지원자의 상황을 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족하다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 주제에 대한 설명이 잘 이어진다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 예비 7번의 합격 가능성에 대한 명확한 진술이 부족하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 예비 7번의 합격 가능성에 대한 명확한 언급이 부족하여 다소 아쉬운 부분이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6160493078920461</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생이 게임공학과에 지원하려고 하는데, 현재 모집 정보를 보면 게임공학과는 ICT융합공과대학의 소프트웨어융합학과에서 모집인원 7명으로 진행되고 있습니다. 하지만 이 정보만으로는 확정적으로 붙을 수 있는지 알 수 없습니다.
+ICT융합공과대학 소프트웨어융합학과의 경우, 정원 외로 모집하는 것이 아니라면, 지원자의 합격 여부는 면접 성적, 서류 평가 등 다양한 요소에 따라 결정됩니다. 특히, 동점자 처리 기준 등을 고려해야 하므로, 확정적인 결과를 얻기 위해서는 정확한 정보와 개인의 준비 상태를 확인하는 것이 중요합니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 많은 정보를 확인하실 수 있습니다.
+혹은 직접 대학 입학처에 문의하시면, 지원자의 개인 상황을 고려한 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급 4.16에 대한 합격 가능성을 언급하고 있지만, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 일부 정보는 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가 합격 가능성에 대한 판단이 원본의 내용과 상충하는 부분이 있습니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮다고 평가하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 등급과 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 경쟁률과 모집 인원에 대한 정보는 원본 텍스트와 직접적인 관련이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 경쟁률과 모집 인원에 대한 언급이 원본의 주제와 다소 동떨어져 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급에 대한 정보는 정확하지만, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6779743744474762</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급을 가지고 동의대학교 게임공학과에 지원한다면, 현재 제공된 정보로는 추가 합격 가능성에 대해 명확히 판단하기 어렵습니다. 게임공학과의 경쟁률은 5.33이며, 모집인원은 3명이고 지원 인원이 16명이라는 점을 고려하면, 수능 등급이 평균적인 수준보다 높지 않아 추가 합격 가능성은 낮다고 볼 수 있습니다.
+하지만, 정확한 판단을 위해서는 동의대학교 게임공학과의 최종 합격자 명단이나 더 많은 정보를 참고해야 합니다. 또한, 지원자의 개인적인 경력, 학생부 평가 등이 추가적으로 고려되는 점도 기억해 두세요.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 지원 자격과 전형 요소 반영 비율에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적 3.75와 관련된 합격 가능성에 대한 정보는 포함되어 있지 않으며, 재직 기간과 보험 가입 여부에 대한 조건이 추가되어 있어 원본의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 합격 가능성에 대한 정보 대신 다른 전형에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 주제인 정시 성적과 최초등록자 가능성에 대한 직접적인 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 경영정보학과의 합격 가능성에 대한 정보가 잘못된 방향으로 해석되고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있어 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5753009033018185</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면, 학생부종합전형의 지원자격과 전형요소 반영비율을 확인해야 합니다.
+1. **지원자격**: 
+   - 재직기간이 3년 이상이어야 합니다.
+   - 4대 보험 중 하나 이상 가입되어 있어야 합니다 (창업·자영업자 포함).
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함.
+2. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+당신의 경우, 경영정보학과 정시 성적 3.75를 가지고 최초등록자로 지원하려면, 재직기간이 3년 이상이며, 4대 보험 중 하나 이상 가입되어 있어야 합니다.
+만약 이러한 조건을 충족하고 있다면, 최초등록자로서 가능할 것입니다. 하지만 만약 재직기간이나 보험 가입 여부가 미비하다면, 지원이 불가능할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 대학 입학처에 문의하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 4.2가 지원 자격에 영향을 미친다고 언급하고 있지만, 원본 텍스트에서 제시된 평균 성적(3.88)보다 낮은 성적이라는 점을 명확히 반영하지 못하고 있습니다. 또한, 나군 학생부종합전형의 지원 자격 조건을 추가로 언급하고 있어 원본 텍스트의 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경영정보학과의 평균 성적에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 4.2가 낮은 성적이라고 명시하고 있지만, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 지원 자격에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 정시 성적에 대한 분석이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 평균 성적과의 비교가 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5753666130431623</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공하신 정보만으로는 나군 학생부종합전형의 지원 자격 여부를 판단하기 어렵습니다. 경영정보학과의 정시 성적 4.2은 지원 자격에 영향을 미치지만, 다른 요소들(예: 재직기간, 학력 등)도 고려되어야 합니다.
+나군 학생부종합전형의 지원 자격 조건 중 일부는:
+1. 재직기간 (3년 이상)
+2. 학력 (고교 졸업 또는 검정고시 출신자 등)
+따라서, 경영정보학과 정시 성적이 4.2이더라도, 재직기간이나 학력을 포함한 다른 요소들이 지원 자격에 미치는 영향을 결정합니다.
+더 자세한 정보를 얻으려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 나군 입학처에 문의하시는 것이 좋습니다. 그곳에서는 제공된 성적 외에도 재직기간, 학력 등 모든 요소를 종합적으로 검토하여 지원 자격 여부를 판단할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 언급하고 있으며, 5.33이라는 점수에 대한 해석을 제공하고 있습니다. 그러나, 응답이 명확하게 합격 가능성을 낮다고 단정짓지 않고, 추가적인 정보를 확인할 필요성을 강조하고 있어 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있으며, 경영정보학과의 합격 기준에 대한 언급이 있습니다. 다만, 원본 텍스트에서 제시된 합격 가능성이 낮다는 점을 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 결론을 명확히 반영하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 경영정보학과의 합격 기준에 대한 정보를 제공하고 있습니다. 그러나 5.33이라는 점수에 대한 해석이 다소 모호하게 표현되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 모호함과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 합격 가능성에 대한 명확한 결론이 부족하여 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6461664153979577</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교 경영정보학과 일반학생전형에 대한 정확한 합격 기준 점수를 확인해야 합니다.
+일반적으로, 정시 성적은 모집단위별로 다르게 적용되며, 경영정보학과의 경우도 그럴 수 있습니다. 따라서 동의대학교 경영정보학과 일반학생전형의 정시 합격 기준 점수를 확인하시기 바랍니다.
+만약 해당 정보가 없거나 불확실하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인하거나, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.
+정시 합격 가능 여부는 모집단위별로 정해진 기준 점수와 비교하여 판단해야 하므로, 해당 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부가 2024년에 바이오의약공학과와 식품공학과로 분리되었다고 주장하지만, 원본 텍스트에서는 바이오응용공학부의 평균 등급과 합격 가능성에 대한 정보가 제공되고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 바이오응용공학부의 평균 등급과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 해당 학부가 존재하지 않는다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보는 충분히 다루지 않고 있습니다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 바이오응용공학부의 존재 여부와 합격 가능성에 대한 정보가 혼재되어 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 바이오응용공학부의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 특히, 바이오응용공학부의 존재 여부에 대한 주장은 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란스러울 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6497381268324696</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정보를 기반으로 분석하겠습니다.
+바이오응용공학부는 2023년에는 바이오응용공학부였고, 2024년에는 바이오의약공학과와 식품공학과로 분리되었습니다. 따라서 현재의 바이오응용공학부는 존재하지 않습니다.
+현재 동의대학교에서 바이오의약공학과와 식품공학과로 모집되고 있습니다. 이 두 과 중 어느 과에 지원할 것인지 결정해야 합니다.
+바이오의약공학과와 식품공학과의 경쟁률, 평균 점수 등을 고려하면 다음과 같은 정보가 필요합니다:
+- 2024년 바이오의약공학과와 식품공학과의 최종등록자들의 성적 분포
+- 해당 과의 모집 인원 및 지원 인원
+만약 현재 동의대학교의 바이오의약공학과와 식품공학과의 평균 점수가 3.33 정도라면, 경쟁률을 고려하여 최초등록자로 선발될 가능성은 있습니다. 하지만 정확한 확률을 예측하기 위해서는 해당 과의 실제 성적 분포를 확인해야 합니다.
+추천되는 조치:
+1. 동의대학교의 공과대학 홈페이지에서 2024년 바이오의약공학과와 식품공학과의 최종등록자들의 성적 분포를 확인합니다.
+2. 해당 과의 모집 인원 및 지원 인원을 확인하여 경쟁률을 계산합니다.
+만약 이러한 정보가 제공되지 않거나 불확실한 경우, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 낮다는 점을 언급하지 않고, 학생부종합 평가에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 방사선학과의 평균 등급에 대한 언급이 없고, 학생부종합 평가에 대한 정보로 대체하고 있습니다. 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원하는 방법에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 방사선학과의 평균 등급에 대한 정보가 없기 때문에 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과의 평균 등급에 대한 정보가 누락되어 있습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6881978806276499</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받게 됩니다. 현재 정시 등급이 4.4로 보통 중간 정도의 성적을 가지고 계신 것 같습니다.
+방사선학과는 전공적합성도 중요하게 고려되기 때문에, 방사선 관련 과목이나 활동 경험이 있다면 이 부분을 강조하는 것이 좋습니다. 또한 학생부종합 평가에서는 인성, 공동체역량, 학업역량 등이 함께 평가되므로, 이러한 면에서도 자신을 잘 표현할 수 있는 자료를 준비해보세요.
+학과의 전형요소 반영비율과 학생부 교과성적 반영방법 등을 확인하시고, 해당 학과에 맞는 지원자 자기소개서와 서류를 체계적으로 준비하는 것이 중요합니다. 필요하다면, 대학 입학처나 관련 컨설팅 서비스를 통해 자세한 정보를 얻어보시기 바랍니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 정시 경쟁률에 대한 언급이 있지만, 원본 텍스트에서 제공된 평균 등급 정보(영어 등급 평균 2.8, 수능 4개 영역 등급 평균 3.82)에 대한 직접적인 언급이 부족합니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 경쟁률에 대한 언급이 원본 텍스트의 내용과 다소 상충할 수 있습니다. 원본 텍스트는 2.66이 평균보다 높다고 명시하고 있으나, 생성된 응답은 이를 낮은 점수로 간주하고 있습니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 정시 경쟁률과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 평균 등급 정보에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실이 누락되거나 왜곡된 정보가 포함되어 있어 정확성이 떨어집니다. 특히, 2.66 점수를 낮게 평가한 부분이 원본 텍스트와 상충하므로 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하지만, 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6038745390324398</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 정시 경쟁률을 고려하면 상대적으로 낮은 점수입니다. 하지만 정시 경쟁률이 높지 않은 학교나 전형에 지원한다면 위험하지 않을 수 있습니다.
+방사선학과의 정시 경쟁률은 매년 변동되므로, 최신 정보를 확인하는 것이 중요합니다. 또한, 서류평가와 면접 평가에서 좋은 성적을 받는다면 합격 가능성은 높아질 것입니다.
+따라서, 다음과 같은 점들을 고려해 보세요:
+1. 지원할 대학의 정시 경쟁률
+2. 서류평가와 면접 평가에서의 성적
+3. 자기소개서와 면접 준비
+최신 정보를 확인하고 전략을 세우는 것이 중요합니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 평균보다 높다고 언급했지만, 원본 텍스트에서는 평균 성적이 4.12라고 명시되어 있습니다. 따라서 이 부분에서 사실과 다릅니다. 또한, 응답은 입학사정관들이 평가하는 요소에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 3.66의 성적이 평균보다 높다는 주장은 사실과 다릅니다. 또한, 원본 텍스트에서 언급된 경쟁률에 대한 정보는 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 입학 전형에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 성적과 경쟁률에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 평균보다 높다고 주장하지만, 이는 사실과 다릅니다. 원본 텍스트의 평균 성적은 4.12로, 이 점에서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 정보와의 차이가 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5508774994737249</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공 농어촌 전형에 지원하셨다면, 학업역량과 전공적합성 등 여러 요소를 고려하여 입학사정관들이 평가하게 됩니다.
+평생학습자전형이나 성인학습자전형의 경우, 학업역량은 학업태도와 성취도, 전공적합성은 지원전공과 관련된 활동 등을 종합적으로 판단합니다. 따라서 3.66이라는 점수만으로는 확실한 결론을 내리기 어렵습니다.
+다음 사항들을 참고하시면 도움이 될 것입니다:
+1. **학업역량**: 학교생활기록부에서 보여주는 성적 추이, 수업 참여도 등.
+2. **전공적합성**: 지원전공과 관련된 활동이나 경험, 학업의지 등을 기재한 서류.
+3. **서류 제출**: 요구되는 서류를 모두 제출했는지 확인.
+입학사정관들이 평가하는 요소들은 다양하고 주관적인 판단이 포함되므로, 최선을 다해 준비하신 점수와 서류가 입학사정관들의 눈에 잘 보일 수 있도록 작성하시면 좋습니다. 만약 더 자세한 정보를 원하시거나 불확실성을 해소하려면, 해당 대학의 입학처나 학생부종합전형 관련 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성을 언급하고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 따라서 정보의 일부가 누락되어 있어 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일관된 주제를 다루고 있지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 구체적인 정보(합격 가능성이 있는 학과 목록)를 포함하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 약해져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 합격 가능성에 대한 일반적인 조언을 제공하지만, 원문에서 제시된 구체적인 사실(예비 25번 이상 합격한 학과 목록)을 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 원문에서의 구체적인 사실이 누락되어 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있지만, 원문에서 제공된 구체적인 정보가 부족하여 의미적으로 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원문과의 연결이 약해져서 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5302330049098763</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위는 높은 점수를 받은 학생들이 앞에 위치하게 됩니다. 그러나 정확한 붙을 확률을 판단하기 위해서는 해당 전형의 경쟁률과 평균 합격점 등을 고려해야 합니다.
+현재 정보만으로는 특정 전형의 경쟁률이나 평균 합격점을 알 수 없으므로, 다음과 같은 절차를 따르시면 도움이 될 것입니다:
+1. **전형별 경쟁률 확인**: 입학처 홈페이지에서 해당 전형의 경쟁률을 확인하세요.
+2. **평균 합격점 확인**: 입학처 홈페이지나 입학 안내 홈페이지에서 해당 전형의 평균 합격점을 확인하세요.
+3. **예비 합격자 순위 분석**: 예비 25번이 나왔다는 것은 경쟁률이 높은 편이라는 것을 의미합니다.
+경쟁률이 높다면, 예비 25번의 학생도 최상위권에 속한 것으로 보입니다. 그러나 아직 최종 합격자 발표가 이루어지지 않았으므로, 가능성은 여전히 있습니다.
+만약 가능성을 높이기 위해서는:
+- **면접 준비**: 면접 평가 기준을 잘 이해하고 준비하세요.
+- **서류 제출**: 서류 제출 시 주의를 기울여 부정적 사례에 해당하는 내용은 피하세요.
+- **합격자 발표 확인**: 최종 합격자 발표일까지 계속해서 확인하세요.
+최종적으로는 합격 여부가 결정되므로, 기대하면서도 현실적인 준비를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 내용을 포함하고 있습니다. 법경찰행정학부는 존재하지 않으며, 응답은 법학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 다루고 있지만, 생성된 응답은 법학과에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 제공하는 반면, 생성된 응답은 법학과에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실적으로 부정확합니다. 법경찰행정학부에 대한 정보가 잘못되었으며, 제공된 성적 정보도 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7435408019003217</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법학과의 경쟁률은 5.71이며, 지원 인원이 40명이고 모집인원이 7명입니다. 이에 따라 평균적인 성적을 파악해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 6.84
+이 데이터를 바탕으로, 안정권에 들어갈 수 있는 평균 성적을 계산해보겠습니다.
+1. **안정권 평균 성적 계산**:
+   - 경쟁률이 높은 경우, 표준 편차를 고려하여 2~3 표준 편차 내의 점수를 안정권으로 보는 것이 일반적입니다.
+   - 따라서, 평균 점수 315.78에서 2 표준 편차 내로 계산하면:
+     \[
+     315.78 - (6.84 \times 2) = 301.9
+     \]
+   - 따라서, 평균 성적이 **301.9점** 이상이면 안정권에 들어갈 수 있을 것입니다.
+2. **문 닫고 들어갈 수 있는 점수 계산**:
+   - 경쟁률이 높은 경우, 표준 편차를 고려하여 4~5 표준 편차 내의 점수를 문 닫고 들어갈 수 있는 점수로 보는 것이 일반적입니다.
+   - 따라서, 평균 점수 315.78에서 4 표준 편차 내로 계산하면:
+     \[
+     315.78 - (6.84 \times 4) = 290.5
+     \]
+   - 따라서, 평균 성적이 **290.5점** 이상이면 문 닫고 들어갈 수 있을 것입니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어가려면 평균 성적 301.9점 이상을 받으면 안정권에 들어갈 수 있으며, 290.5점 이상이면 문 닫고 들어갈 수 있을 것입니다.
+만약 더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 점수가 영어영역 등급에 해당한다고 언급하고 있지만, 원문에서는 아동학과의 평균 등급이 6.33이며, 5.33의 점수로 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 일부 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 특히 수능 영어 등급에 대한 기준이 명확하지 않다고 반복적으로 언급하고 있습니다. 이는 원문에서 제시된 합격 가능성과 상충하는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제공된 정보에 대한 직접적인 답변이 부족합니다. 그러나 동의대학교의 공식 홈페이지를 참조하라는 제안은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 같은 내용을 반복하는 경향이 있습니다. 이는 응답의 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 일치하지 않는 부분이 있으며, 특히 합격 가능성에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 응답의 질이 평균적이며, 여러 차원에서 개선이 필요합니다. 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문과의 일치성이 떨어져서 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 반복적인 내용으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.7001080258841942</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 영어영역 등급에 해당합니다. 동의대학교 보육가정상담학과의 경우, 정시모집군은 &lt;나&gt;군이며, 학교에서 제공한 정보를 바탕으로 보면, 학생부종합전형이나 실기/실적전형에서는 특정 점수 기준이 있지만, 수능 영어 등급에 대한 명확한 기준점은 주요 전형방법 중에서 보아지지 않았습니다.
+따라서, 정시모집군 &lt;나&gt;군의 경우, 학생부종합전형이나 실기/실적전형에서는 특정 점수 기준이 있지만, 수능 영어 등급에 대한 명확한 기준점은 주요 전형방법 중에서 보아지지 않았습니다. 따라서 5.33의 등급으로는 합격할 수 있을지는 확실하지 않습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 번호 12번에 대한 정보가 잘못 해석되었습니다. 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 있다고 언급하고 있지만, 생성된 응답은 '영어교과 전 과목 등급 평균 상위자'라는 기준을 언급하며 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 충원 합격 가능성에 대한 일반적인 설명을 제공하는 반면, 생성된 응답은 특정 기준을 언급하며 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 특정 기준을 언급함으로써 주제를 벗어나는 경향이 있습니다. 예비 번호에 대한 일반적인 가능성에 대한 질문에 대한 답변으로는 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관성이 떨어집니다. 특정 기준을 언급함으로써 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 예비 번호 12번에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 있습니다. 잘못된 기준을 언급함으로써 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 특정 기준에 대한 언급이 혼란을 초래하여 명확성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4564016116433607</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>12번을 받으셨다면, 이는 동점자 처리 기준 중 하나인 '영어교과 전 과목 등급 평균 상위자'에 해당합니다. 따라서, 동의대 보육가정상담 충원 합격 3차에서 합격 가능성은 있습니다.
+하지만, 확실한 것은 아닙니다. 최종 합격 여부는 여러 요인에 따라 결정되며, 다른 지원자의 성적과 기준 등급 평균도 고려됩니다. 따라서, 정확한 합격 가능성을 확인하려면 입학관리팀에서 상세히 문의하거나, 공지된 홈페이지를 통해 개별 조회하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원하기 어려운 점을 언급하고 있지만, "가능하다"는 표현이 다소 모호하게 느껴진다. 유아교육학과의 경쟁률과 다른 전형 요소에 대한 설명은 포함되어 있으나, 원문에서 명시된 4.18의 평균 성적과의 비교가 부족하다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률이 높다고 언급하며, 4.75의 성적이 좋은 점수라고 하지만, 원문에서는 4.75로 지원하기 어려운 이유를 명확히 제시하고 있다. 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 다루고 있어 관련성이 높지만, 원문에서 제시된 다른 학과에 대한 정보는 포함되어 있지 않다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 유아교육학과에 대한 정보가 더 명확하게 정리될 필요가 있다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 전형 요소에 대한 설명이 포함되어 있지만, 원문에서 제시된 평균 성적과의 비교가 부족하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 맥락을 잘 반영하고 있으며, 의미적으로 적절하다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7325550392736292</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시 모집에 지원하는 것은 가능합니다만, 유아교육학과의 경우 경쟁률이 매우 높기 때문에 그만큼 어려울 수 있습니다.
+유아교육학과는 전형 요소 중 학생부 교과성적이 큰 비중을 차지하기 때문에 4.75라는 성적은 좋은 점수입니다. 그러나 유아교육학과의 경우, 정시 모집에서 경쟁률이 높고, 학생부 교과성적 외에도 면접 등 다른 요소들이 중요하게 작용합니다.
+따라서 4.75라는 성적만으로는 유아교육학과에 쉽게 입학하기 어렵다고 할 수 있습니다. 그러나 최선을 다해 준비하고, 면접에서도 좋은 모습을 보여주면 가능성을 높일 수 있을 것입니다.
+추가적으로, 정시 모집에서의 경쟁률이나 학생부 교과성적 외에 다른 요소들(예: 특기사항, 활동 등)도 고려해보시는 것이 좋습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하시거나 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 "확실한 것은 아닙니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "동아대학교의 평균 등급이 높기 때문에 4.16 환산등급으로는 상위권을 차지하기 어렵습니다"라는 주장은 원본 텍스트에서 명시된 평균 등급과의 직접적인 비교가 부족하여 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "확실한 것은 아닙니다"라는 표현은 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5583167249908063</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16 환산등급을 가지고 보육가정상담학과 일반학생전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **평균 등급**: 동아대학교의 평균 등급이 높기 때문에 4.16 환산등급으로는 상위권을 차지하기 어렵습니다.
+2. **서류평가 영역**: 공동체역량, 학업역량, 전공적합성 등 세부 평가 기준에 따라 서류평가 점수가 결정되며, 이 부분에서 좋은 평가를 받는 것이 중요합니다.
+3. **면접 성과**: 면접에서도 지원자의 역량을 판단하기 때문에, 면접 준비도 철저히 해야 합니다.
+4. **전형 특성**: 일반학생전형은 서류평가와 면접이 중요한 요소로 작용하므로, 이 부분에서 좋은 결과를 얻어야 합격 가능성이 높아집니다.
+추합까지 생각한다면, 서류평가와 면접 준비가 중요합니다. 특히, 지원자의 역량을 잘 보여줄 수 있는 사례나 활동 경험 등을 강조하는 것이 좋습니다. 또한, 동아대학교의 입학사정관들이 평가하는 점수 기준을 참고하여 준비를 철저히 해보세요.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문해 보시거나, 동아대학교 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "정시모집이 이루어지지 않는 것으로 보입니다"라는 표현은 다소 불확실성을 내포하고 있어, 원문과의 일치성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관성을 유지하고 있지만, 다른 학과에 대한 언급이 추가되어 있어 원문에서의 단순한 사실 전달과는 다소 차이가 있습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 추가된 정보도 일반적으로 정확합니다. 그러나 "4등급 정도는 받아야 합니다"라는 부분은 특정 대학의 요구사항에 따라 다를 수 있어 약간의 불확실성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 높지만, 추가된 정보가 원문의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5925762625006752</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집이 이루어지지 않는 것으로 보입니다. 따라서 정시로 지원하는 것은 불가능합니다.
+그럼에도 불구하고, 다른 학과에서 비슷한 분야를 공부할 수 있는 방법은 있습니다. 예를 들어, ICT융합공과대학의 게임공학과나 컴퓨터공학과 등이 관련된 학문을 다루고 있을 수 있습니다. 이러한 학과들에 지원하려면 평균적으로 4등급 정도는 받아야 합니다.
+하지만 정확한 요구사항은 해당 대학의 입시 홈페이지를 확인하거나, 입학처와 직접 문의하는 것이 가장 정확합니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서는 이러한 비율에 대한 언급이 없습니다. 따라서 일부 정보는 정확하지 않거나 원본 텍스트에 포함되지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일치하는 부분이 있지만, 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 서류 평가와 면접 준비에 대한 정보를 제공합니다. 그러나 비율에 대한 언급이 원본 텍스트에 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 비율에 대한 정보가 원본과 일치하지 않아 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 비율에 대한 정보는 원본에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 비율에 대한 언급이 원본에 없기 때문에 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.7142228590068463</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가의 비율이 각각 60%와 40%입니다. 따라서 서류 평가에서 더 많은 점수를 얻기 위해 세특 내용을 잘 준비하는 것이 중요합니다.
+서류 평가에서는 학업역량, 전공적합성, 공동체역량 등이 주요 평가 영역으로 나뉩니다. 특히 세특 내용은 학업역량과 전공적합성을 강화하는데 도움이 됩니다. 따라서 세특에서 지원한 전공(계열)과 관련된 활동을 자세히 기재하고, 그 활동을 통해 얻은 성과와 배운 것을 잘 설명하는 것이 중요합니다.
+따로 준비해야 하는 서류는 없습니다. 이미 제출한 서류를 바탕으로 면접에서 답변할 수 있도록 세특 내용을 미리 정리해두면 좋습니다. 예를 들어, 창의적 체험활동이나 동아리 활동, 진로활동 등에서 얻은 경험과 배운 것을 잘 설명하면 됩니다.
+만약 추가적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 점수와 경쟁률에 대한 정보를 포함하고 있지만, 제공된 정보와의 일관성이 부족합니다. 특히, 평균 점수 426.80이 소프트웨어공학부와 관련된 정보로 언급되었으나, 이는 원본 텍스트의 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 경쟁률과 평균 점수에 대한 언급이 원본 텍스트와 일치하지 않아 일관성이 떨어집니다. 특히, 소프트웨어공학부의 평균 점수에 대한 정보가 잘못된 것으로 보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 동의대학교 소프트웨어공학부에 대한 정보와 관련된 내용을 다루고 있습니다. 그러나 일부 정보는 원본 텍스트와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 정보가 잘못되어 있어 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용을 포함하고 있습니다. 그러나 일부 정보는 원본 텍스트와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7186199817347817</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격이 가능한지 판단하기 위해서는 해당 학과의 경쟁률과 평균 점수 등을 고려해야 합니다.
+위에서 제공된 정보 중에서 소프트웨어공학부와 관련된 데이터를 찾아보겠습니다. 
+소프트웨어공학부에 대한 정보는 두 가지가 있습니다:
+1. ICT융합공과대학 게임공학과: 경쟁률 5.33, 평균 점수 317.77
+2. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학): 경쟁률 2.20, 평균 점수 426.80
+이 중에서 426.80이라는 평균 점수가 가장 가까운 수치로 보입니다. 이 경우, 정시 성적이 4.08이라면 평균 점수보다는 낮은 점수를 가지고 있습니다.
+따라서, 정시 성적이 4.08인 경우 소프트웨어공학부에 최초합격이 가능할지는 불확실합니다. 경쟁률과 평균 점수가 더 높기 때문에, 이 정도의 점수로는 최고위 순위에서 합격하기 어려울 것으로 보입니다.
+하지만, 정시 성적이 4.08이라면 다른 전공이나 대학을 고려해보는 것도 좋은 방법일 수 있습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점은 맞지만, "주어진 정보는 ICT융합공과대학의 게임공학과, 영화학과, 예술디자인체육대학의 패션디자인학과 등에 대한 통계입니다."라는 부분은 사실과 다릅니다. 원본 텍스트에는 이러한 정보가 포함되어 있지 않으며, 잘못된 정보를 추가하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(게임공학과, 영화학과, 패션디자인학과 등)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 다루고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하려고 하지만, 다른 학과에 대한 언급이 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 다른 학과에 대한 언급이 포함되어 있어 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있으며, 전반적으로 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하려고 하지만, 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6603569347633277</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보에서는 소프트웨어융합학과의 관련 데이터가 제공되지 않았습니다. 주어진 정보는 ICT융합공과대학의 게임공학과, 영화학과, 예술디자인체육대학의 패션디자인학과 등에 대한 통계입니다.
+만약 소프트웨어융합학과의 평균 5등급으로 여기려면, 해당 학과의 정시모집 관련 변경사항이나 평균 등급 등의 정보를 확인해야 합니다. 제공된 데이터에서 해당 정보를 찾을 수 없으므로, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 합격 가능성을 낮다고 판단하고 있으나, 원본 텍스트에서는 귀하의 성적이 평균 등급보다 높아 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실관계가 크게 어긋나 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 낮다고 판단하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에 대한 정보를 제공하고 있으나, 신소재공학부에 대한 직접적인 정보가 부족하고 다른 학과의 경쟁률과 평균 점수를 언급하고 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있으나, 주제 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히 신소재공학부에 대한 정보가 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 사실과 상반된 내용을 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 관련성, 정확성 등 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있으나, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 주제와 관련된 정보가 부족하여 일부 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6218802135075133</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 정보를 바탕으로, 정시 성적 4.28을 가진 지원자가 신소재공학부에 합격할 확률은 낮다고 판단됩니다.
+신소재공학부의 경쟁률과 평균 점수를 고려하면:
+- 게임공학과: 경쟁률 5.33, 평균점수 303.05
+- 영화학과: 경쟁률 2.20, 평균점수 286.77
+- 패션디자인학과: 경쟁률 3.67, 평균점수 309.71
+이 중에서 가장 낮은 경쟁률을 가진 영화학과의 평균 점수가 286.77이며, 이보다 높은 점수가 필요합니다.
+신소재공학부에 대한 정확한 정보가 제공되지 않았으므로, 동의대학교 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하여 최신 정보와 경쟁률을 확인하시기 바랍니다. 또한, 학교별로 평균 점수나 경쟁률이 변동될 수 있으므로, 정확한 정보는 해당 대학의 공식 웹사이트에서 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 자기소개서를 작성할 경우의 장점에 대한 설명이 추가되어 있어, 원문과는 약간의 차이가 있지만 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 자기소개서가 필요 없다는 점을 강조하고 있습니다. 다만, 자기소개서를 작성할 경우의 장점에 대한 추가 정보가 포함되어 있어 약간의 일관성 차이가 있지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요성에 대한 정보를 제공하며, 추가적인 조언도 포함되어 있어 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 추가 정보가 포함되어 있어 원문과의 연결이 다소 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하고 있으며, 자기소개서의 필요성에 대한 정보도 정확합니다. 다만, 추가된 정보가 원문에 명시되어 있지 않기 때문에 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 다만, 약간의 일관성 및 정확성에서의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높습니다. 그러나 추가된 정보가 원문에 포함되어 있지 않기 때문에 약간의 의미적 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 추가된 정보가 많아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5853567618342651</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 주로 수능 점수와 관련 서류가 중요합니다. 따라서 자기소개서는 필수적으로 작성하지 않아도 됩니다. 하지만 자기소개서를 작성하면 입학심사관에게 지원자의 개인적 특성과 학업 의지 등을 더 잘 전달할 수 있습니다.
+만약 작성하려고 한다면, 다음과 같은 내용을 포함해볼 수 있습니다:
+1. 지원 동기와 목표
+2. 학업 및 진로 계획
+3. 특기나 관심 있는 분야
+4. 성격과 장점
+하지만 이는 선택 사항이며, 반드시 작성해야 하는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4개 영역 등급이 4.5일 경우 추가 모집에 대한 가능성을 여러 요인(모집단위, 경쟁률, 평균점수 등)을 고려해야 한다고 언급하고 있습니다. 이는 원본 텍스트의 내용과 일치하지만, 특정 학과의 평균 점수와 경쟁률에 대한 구체적인 정보가 추가되어 있어 약간의 정보가 더 포함되었습니다. 그러나 전반적으로 사실에 기반한 내용입니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 가능성을 평가하는 데 필요한 요인들을 잘 설명하고 있습니다. 다만, 원본 텍스트에서 언급된 특정 학과의 평균 등급과 비교하는 부분이 다소 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수능 정시 모집과 추가 모집에 대한 질문에 대해 적절한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 관련되는지를 명확하게 설명하고 있습니다. 따라서 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 추가적인 세부사항을 제공하고 있습니다. 그러나 특정 학과의 평균 점수와 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일부 세부사항에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.541585278206571</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수를 가지고 추가모집에 들어갈 수 있는지는 여러 요인을 고려해야 합니다. 주요 요인으로는 모집단위, 경쟁률, 평균점수 등이 있습니다.
+다음은 몇 가지 참고할 만한 정보입니다:
+1. **모집단위별 경쟁률과 지원 인원**: 각 모집단위의 경쟁률과 지원 인원을 확인해야 합니다. 예를 들어, 조선해양공학과는 0.83의 경쟁률이 있었고, 신소재공학과와 분자나노공학과는 1.45의 경쟁률이 있었습니다.
+2. **평균점수**: 각 모집단위별로 평균점수가 다르므로 이를 참고해야 합니다. 예를 들어, 조선해양공학과의 평균점수는 262.88였습니다.
+3. **경쟁률**: 경쟁률이 낮은 모집단위에서는 더 높은 점수가 필요하지 않을 수 있습니다. 반대로 경쟁률이 높은 모집단위에서는 더 높은 점수를 요구할 수 있습니다.
+4. **추가모집의 경우**: 추가모집에서의 경쟁률과 지원 인원을 확인해야 합니다. 일반적으로 추가모집에서는 경쟁률이 낮아질 수 있지만, 여전히 모집단위별로 차이가 있을 것입니다.
+따라서, 4.5라는 점수를 가지고 어떤 모집단위에서 들어갈 수 있는지 정확하게 판단하기 위해서는 해당 모집단위의 평균점수와 경쟁률을 확인해야 합니다. 이를 통해 더 구체적인 판단이 가능해질 것입니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참고하거나 대학에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균(5.06)과 수능 4개 영역 등급 평균(5.78)에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보와는 일치하지 않습니다. 경쟁률과 평균 점수에 대한 정보는 일관성이 있지만, 원본 텍스트의 주요 사실과는 다소 상충하므로 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 특정 세부사항을 다루지 않기 때문에 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 정확성에 문제가 있습니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 원본 텍스트의 핵심 사실이 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6465112774596379</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경쟁률과 평균 점수를 확인해보겠습니다.
+먼저, 2024학년도 동의대학교 신소재공학부에 대한 정보는 다음과 같습니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 432.67
+이 정보를 바탕으로, 동의대학교 신소재공학부는 경쟁률이 3.67이며, 평균 수능 점수가 높은 편입니다.
+따라서, 동의대학교 신소재공학부에 합격하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 310점 이상이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 430점 이상이어야 합니다.
+하지만, 정확한 등급은 해당 대학의 입시 홈페이지에서 확인하거나, 동의대학교 입시센터에 문의하시는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 447점의 표준 점수가 작년 신소재공학과의 평균 점수보다 높다는 사실을 무시하고, 오히려 낮게 환산될 가능성이 매우 낮다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 447점이 평균보다 훨씬 높다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 왜곡하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 중복되어 나타나기도 합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 447점이 평균보다 낮게 환산될 가능성이 낮다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 주장을 하고 있어 일부 부적절한 요소가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6567748289248198</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 작년 동일한 학과에서 최종 평균으로 1점 정도 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 해당 대학의 입시 홈페이지를 확인하거나, 직접 입학처에 문의하는 것이 가장 확실합니다.
+입력하신 정보와 관련된 데이터를 바탕으로, 작년 동일 학과의 평균 점수가 447점보다 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 대학 입시 홈페이지나 직접 입학처에 문의하여 확인하는 것이 가장 확실합니다.
+더 궁금하신 사항이 있으시면 "https://ipsi. deu. ac. kr/main. do"를 참조하거나, 동의대학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 성적과 비교했을 때 합격 가능성에 대한 결론이 다소 다릅니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮을 것으로 보인다고 하여 사실관계에 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 결론이 상반되어 일관성이 떨어집니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 낮을 것이라고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 신소재공학부의 성적 기준과 합격 가능성에 대한 논의가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 전반적으로 유창하지만 약간의 개선 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 합격 가능성에 대한 결론이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 합격 가능성에 대한 판단이 원본과 상반되어 정확성이 떨어집니다. 원본의 평균 성적과 비교했을 때의 해석이 다릅니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 다소 부족함이 있어 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으나, 합격 가능성에 대한 해석이 다소 다르게 나타나므로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 복잡하게 느껴질 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6159104320284998</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 점수가 정시 성적 산출 시 4.1~4.2 정도로 예상되셨다면, 동의대학교 신소재공학부 일반학생전형에 합격할 확률은 낮을 것으로 보입니다.
+신소재공학부 일반학생전형의 수능 반영 비율과 성적 산출 방법을 확인해보겠습니다:
+1. **수능 반영 영역 및 가산점**:
+   - 모집단위: 전 모집단위
+   - 수능 반영 영역: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+   - 가산점: 없음
+2. **성적 산출 방법**:
+   - 전형명: 다군 수능(일반학생전형)
+   - 모집단위: 전 모집단위
+   - 성적 산출 방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이러한 기준을 고려하면, 4.1~4.2의 점수가 신소재공학부 일반학생전형에 충분히 경쟁력을 갖추지 못할 것으로 보입니다.
+**추천 사항:**
+- 다른 전형(예: 특기자전형, 학생부종합전형 등)을 고려해보세요.
+- 수능 점수를 높이기 위한 추가 학습 계획을 세우세요.
+- 동의대학교의 다른 학과나 다른 대학을 탐색해보세요.
+더 자세한 정보는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정확한 성적 정보를 제공하지 않고, 다른 과목과 기준에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과는 전혀 관련이 없는 정보가 포함되어 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 많아 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보와는 전혀 상관없는 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 각 항목이 나열되어 있지만, 원본 텍스트와의 연결이 없기 때문에 논리적인 흐름이 부족합니다. 그러나 각 항목은 독립적으로 이해할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6865094552820096</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>东义大学人工智能学部一般学生入学考试的科目和标准如下：
+1. **국어 (Korean Language)**: 국어는 한국어를 포함한 다양한 주제에 대한 이해와 표현을 평가합니다. 수능에서의 표준점수는 104 이상이 필요합니다.
+2. **수학 (Mathematics)**: 수학은 기본적인 수학 개념부터 고급 수학까지 폭넓게 평가합니다. 수능에서의 표준점수는 미적분 영역에서 108 이상이 필요합니다.
+3. **영어 (English Language and Literature)**: 영어는 읽기, 쓰기, 듣기 등 다양한 영어 능력을 평가합니다. 수능 영어 영역의 등급은 최소 4등급 이상이어야 합니다. 예를 들어, 4등급의 점수는 115 이상이 필요합니다.
+4. **사회 (Social Studies)**: 사회는 역사와 도덕을 포함하여 사회적 이해와 가치관을 평가합니다. 수능에서의 표준점수는 최소 90 이상이 필요합니다.
+5. **과학 (Science)**: 과학은 물리, 화학 등 다양한 과학 분야를 평가합니다. 예를 들어, 물리 영역의 표준점수는 47 이상이 필요합니다.
+6. **한국사 (Korean History)**: 한국사는 한국 역사에 대한 이해와 기억력을 평가합니다. 수능에서의 표준점수는 최소 90 이상이 필요합니다.
+위와 같은 성적을 얻기 위해서는 꾸준한 학습과 실력 향상이 중요합니다. 또한, 동의대학교 인공지능학부에 지원하기 위해서는 전형료(수수료 포함)가 35,000원이 필요하며, 이 정보는 "https://ipsi. deu. ac. kr/main. do"에서 확인할 수 있습니다.
+추가로 필요한 정보나 자세한 사항은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의해보시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 내용을 다루고 있지만, 5.27 성적이 충원 합격 가능한 학과에 대한 구체적인 정보를 제공하지 않고 있습니다. 대신, 지원 전형에 대한 일반적인 설명을 하고 있어 사실적 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 충원 합격 가능 학과에 대한 구체적인 정보를 제공하지 않아서 일관성이 떨어집니다. 원본 텍스트는 5.27 성적으로 충원 합격이 가능한 학과를 명확히 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적과 관련된 질문에 대한 답변을 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 학과 정보와는 거리가 있습니다. 그러나 전형에 대한 설명은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트의 핵심 정보를 놓치고 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 명확히 언급하지 않고, 전형에 대한 일반적인 설명만을 제공하여 정확성이 떨어집니다. 원본 텍스트의 구체적인 데이터와 비교할 때 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 품질 기준을 충족하지만, 원본 텍스트의 구체적인 정보와 비교할 때 전반적인 품질이 떨어집니다. 정보의 깊이가 부족하여 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 전형에 대한 설명은 유용하지만, 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트의 핵심 정보를 놓치고 있어 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.638392787305901</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 지원하는 것은 가능하지만, 어느 전형으로 지원할 수 있는지 명확히 파악하기 위해서는 동의대학교의 정시 모집전형별 학업역량 기준을 확인해야 합니다.
+현재 제공된 정보를 바탕으로 추정해보면:
+- **평생학습자전형**: 이 전형은 일반적으로 학업역량보다는 다른 평가 영역(공동체역량, 전공적합성 등)에 더 중점을 두므로, 5.27의 성적만으로 지원하기는 어렵습니다.
+- **성인학습자전형**: 이 전형도 비슷한 경우입니다. 학업역량보다는 다른 평가 영역이 중요하므로, 단순히 성적이 낮은 것은 큰 문제일 수 없습니다.
+따라서 5.27의 성적만으로 추합 가능한지 확신하기 어렵습니다. 동의대학교의 정시 모집전형별 학업역량 기준을 확인하거나, 입학사정관이 평가하는 영역에 대한 정보를 더 파악해야 합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 동의대학교의 정시 모집전형별 기준을 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 정시 성적 4.2의 관계를 잘 설명하고 있으며, 합격 가능성에 대한 정보도 포함되어 있습니다. 그러나 일부 세부사항(예: 지원 인원, 경쟁률 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(지원 인원, 경쟁률 등)가 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 성적 4.2에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원본 텍스트와의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 추가된 정보가 정확한지에 대한 검증이 필요합니다. 따라서 높은 정확성을 보이지만 완전하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6610451373270223</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 어느 정도일지 판단해보겠습니다.
+소프트웨어공학부는 일반학생전형에서 모집하고 있으며, 2024학년도 지원 인원이 16명이고, 경쟁률이 5.33입니다. 이에 따라 충원 합격자는 3명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다.
+정시 성적 4.2를 기준으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다. 이에 따라 정시 성적 4.2는 평균보다 약간 높은 수치로 판단할 수 있습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에서 충원 합격 가능성은 상당히 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 지원자의 개인적인 성적과 경쟁률 등 다양한 요소에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참고하시거나, 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 점수가 합격 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나 성적 산출 예시에서 제시된 점수들이 실제로 해당 전형에 부합하는지에 대한 명확한 근거가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 성적 산출 예시와 관련된 정보가 추가되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 식품공학과와 화학환경공학부의 전형이 혼동될 수 있는 점이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 성적 기준에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 성적 산출 예시가 원본 텍스트의 주제와 완전히 일치하지 않아 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 성적 산출 예시와 관련된 정보가 실제 기준과 일치하는지에 대한 명확한 확인이 필요합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 성적 산출 예시가 원본의 주제와 완전히 일치하지 않아 약간의 의미적 불일치가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7328382526204209</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 얻으셨다면, 해당 점수가 화학환경공학부의 정시 모집단위에서 요구하는 성적 기준을 충족하고 있는 것으로 보입니다.
+화학환경공학부의 일반학생전형은 다음과 같은 방식으로 성적이 산출됩니다:
+- 국어 표준점수
+- 수학 표준점수 
+- 영어 등급점수
+- 탐구 표준점수
+성적 산출 예시에서 국어 104, 수학(미적분) 108, 영어 4등급, 과탐(화학Ⅰ) 59로 가정했을 때, 이 점수들은 화학환경공학부의 일반학생전형에 충분히 부합할 것으로 보입니다.
+따라서, 동의대학교 식품공학과 정시 모집단위에서 요구하는 성적 기준을 충족하신다면, 화학환경공학부의 일반학생전형으로 지원하실 수 있을 것입니다. 하지만 최종적인 지원 가능 여부는 해당 대학교의 공식 홈페이지나 입학처에 문의하시거나 확인하시는 것이 가장 정확할 것입니다.
+만약 추가 정보가 필요하거나 더 자세한 내용을 알고 싶으시다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 원본에서는 4.25라는 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 제시된 합격 가능성과 생성된 응답의 주장이 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 결론을 도출하고 있습니다. 경쟁률, 평균 점수, 표준 편차에 대한 언급은 관련성이 있지만, 잘못된 해석으로 인해 전체적인 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 항목이 나열되어 있지만, 결론이 원본과 상반되므로 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 제공합니다. 원본의 데이터와 결론이 상충합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 일부 내용은 적절하지만, 결론이 잘못되어 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 결론으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6958558635153035</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 높지 않을 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 제공된 데이터에서 환경공학과, 화학공학과, 응용화학과의 경쟁률은 1.21입니다. 이는 지원 인원이 모집 인원보다 약간 더 많은 수준으로, 합격 기회가 낮습니다.
+2. **평균 점수**: 해당 분야에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 269.13입니다. 이보다 낮은 점수가면 경쟁에서 뒤처질 가능성이 큽니다.
+3. **표준 편차**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차는 24.49입니다. 이는 성적 분포가 넓다는 것을 의미하며, 평균보다 낮은 점수가 많은 지원자에게 불리합니다.
+따라서, 4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격하기는 어려울 것으로 보입니다. 더 높은 성적이 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 데이터에 기반하여 합격 가능성을 논의하고 있으며, 평균 성적과 경쟁률에 대한 정보를 포함하고 있습니다. 그러나 경쟁률과 지원 인원에 대한 구체적인 수치가 제공되지 않았고, 일부 정보는 명확하지 않아 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 지원 인원에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 정보와 완전히 일치하지 않기 때문에 점수를 3으로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 점수를 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 경쟁률과 지원 인원에 대한 정보가 추가되어 있어 정확성에 약간의 의문이 생길 수 있습니다. 따라서 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성 문제로 인해 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 따라서 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.548521874349175</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 평균적인 경쟁률을 고려할 때, 영화학과의 경우 경쟁률이 2.20이며, 지원 인원은 11명이고 모집인원은 5명입니다. 이에 따라 충원 합격자는 6명이며, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이고 표준 편차는 17.29입니다.
+현재 제공된 정보만으로는 정확한 합격 여부를 예측하기 어렵습니다. 하지만, 현재의 성적이 평균보다 높으므로 좋은 결과를 기대할 수 있습니다. 그러나, 경쟁률과 지원 인원이 많아서 절대적으로 확실하지는 않습니다.
+추가적인 정보와 개인의 전공적합성 등을 고려하여 합격 가능성은 높아 보입니다. 하지만, 최종 합격 여부는 입학사정관이 평가하는 다양한 요소를 종합적으로 판단하므로 정확한 예측은 불가능합니다.
+더 자세한 정보나 분석을 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 정확하게 전달하고 있으며, 원본 텍스트의 내용을 대부분 포함하고 있습니다. 그러나 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 따르고 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성이 완벽하지 않으므로 점수를 낮추었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 설명하고 있습니다. 그러나 추가된 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7897860486778453</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
